--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/集体资本金.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/集体资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,361 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.75951</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.87327</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18069</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1.40756</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.78806</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0364</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.88032</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.86412</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.75377</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.76137</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.26907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.80575</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.07343</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.68494</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.80346</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.57635</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.55008</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.1273</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.39652</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.93697</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.27359</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.84171</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.34738</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.19592</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>58.82163</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3.59641</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.08432000000000001</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1.58817</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>3.30853</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>7.02906</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.58688</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.4964</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2.17779</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1.61379</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.78747</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.35897</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.60766</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.82353</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.30864</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.5937</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.55736</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6319900000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.92507</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.67853</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.90431</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.17711</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8506899999999999</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.15807</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.1785</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.75157</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.13431</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.27225</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>0.54947</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.15047</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.25917</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.02906</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4.03671</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.4362</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.29192</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>68.51555</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>5.9724</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>2.26311</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>3.85346</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12.14328</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.28371</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.46661</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2.51201</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.95248</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.40125</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.34465</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.21872</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.66118</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.33517</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1.33748</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3.95537</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.25871</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.84078</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.40491</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.91114</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.28174</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.25816</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.32706</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.81858</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.78178</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.46688</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.06282</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.57415</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>0.6256699999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.23169</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.54898</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5.41918</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.11657</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.9559</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>75.6221</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7.59381</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.0732</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.56285</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.34961</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10.41626</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.6230599999999999</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.21404</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3.34151</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1.68251</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1.93605</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.43658</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
